--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Question.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Question.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C9BEF-E0A1-4BA9-AFB1-81F7182F93FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -93,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -551,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +559,7 @@
     <col min="2" max="2" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -572,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42887</v>
       </c>
@@ -580,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>42887</v>
       </c>
@@ -588,16 +583,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42888</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>42891</v>
       </c>
@@ -605,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42892</v>
       </c>
@@ -613,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>42894</v>
       </c>
@@ -621,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42895</v>
       </c>
@@ -629,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>42896</v>
       </c>
@@ -637,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>42899</v>
       </c>
@@ -645,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>42902</v>
       </c>
@@ -653,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>42903</v>
       </c>
@@ -661,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42906</v>
       </c>
@@ -669,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>42907</v>
       </c>
@@ -677,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42910</v>
       </c>
@@ -685,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>42911</v>
       </c>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Question.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Question.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C9BEF-E0A1-4BA9-AFB1-81F7182F93FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25AF01-32C4-4319-B60C-A371D80009EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,23 +107,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -201,41 +210,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AB5929B7-D614-490C-B905-76985F166EEE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,155 +570,155 @@
     <col min="2" max="2" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>42887</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>42888</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>42891</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>42892</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>42894</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42895</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>42896</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42899</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>42902</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>42903</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>42906</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>42907</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>42910</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>42911</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>42913</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42915</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>42916</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
